--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yache\Desktop\RPAWorkspace\RPA09_의약품안전나라_RE_노유정\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B547A20-BD6F-4231-92AE-273DE3519A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063351A6-2255-4E83-8545-330BD85B8093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{80601F42-B835-411D-B6F1-01869415BCDC}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80601F42-B835-411D-B6F1-01869415BCDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -847,12 +847,35 @@
     <t>DownloadFolder</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>Sheet_Issue</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>이슈</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Sheet_PrevIssue</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Sheet_CurIssue</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>전월이슈</t>
+  </si>
+  <si>
+    <t>당월이슈</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +1018,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1126,7 +1157,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1231,6 +1262,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1598,8 +1632,8 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1651,10 +1685,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
@@ -1682,10 +1716,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
@@ -1697,7 +1731,7 @@
       <c r="B9" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1706,21 +1740,21 @@
         <v>110</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="43"/>
+      <c r="C10" s="44"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="22" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="23"/>
-      <c r="C11" s="44"/>
+      <c r="C11" s="45"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1729,20 +1763,20 @@
         <v>15</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="46"/>
+      <c r="C13" s="47"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="47"/>
+      <c r="C14" s="48"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3">
@@ -1786,10 +1820,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3">
@@ -1811,10 +1845,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="28" t="s">
         <v>81</v>
       </c>
@@ -1896,10 +1930,10 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3">
@@ -1936,7 +1970,7 @@
         <v>77</v>
       </c>
       <c r="B36" s="29"/>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="41" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1947,14 +1981,14 @@
       <c r="B37" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="41"/>
+      <c r="C37" s="42"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="29"/>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="41" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1965,7 +1999,7 @@
       <c r="B39" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="41"/>
+      <c r="C39" s="42"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="33"/>
@@ -2039,18 +2073,30 @@
       <c r="C49" s="35"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
+      <c r="A50" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>142</v>
+      </c>
       <c r="C50" s="35"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
+      <c r="A51" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="C51" s="35"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>146</v>
+      </c>
       <c r="C52" s="35"/>
     </row>
     <row r="53" spans="1:3">
